--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1436.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1436.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.777620315701527</v>
+        <v>1.404879212379456</v>
       </c>
       <c r="B1">
-        <v>1.943110576589768</v>
+        <v>3.935016632080078</v>
       </c>
       <c r="C1">
-        <v>2.197736676932212</v>
+        <v>5.655776023864746</v>
       </c>
       <c r="D1">
-        <v>3.440672616364343</v>
+        <v>1.614978551864624</v>
       </c>
       <c r="E1">
-        <v>1.59058669928598</v>
+        <v>0.9596564173698425</v>
       </c>
     </row>
   </sheetData>
